--- a/Products with Python/Descent MK3s/MK3s_FFP_2.6_400.68.xlsx
+++ b/Products with Python/Descent MK3s/MK3s_FFP_2.6_400.68.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\Products with Python\Descent MK3s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DEC984-28B8-4BAC-A602-75C0A58068BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A86AD-1DBB-45FF-A9E9-D022AD9D0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="rawdata" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FFP_45degree2.6%_total400.68'!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FFP_45degree2.6%_total400.68'!$A$1:$G$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="518">
   <si>
     <t>Process</t>
   </si>
@@ -1596,7 +1596,317 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HRM Lens floating</t>
+    <t>Null or -999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>治具問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>架設問題</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機台效能偏低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, P100/P101 are removed. Display may drop C/N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>, C/N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>太小可能被直接視為0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(null)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HRM Lens floating, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>未即時更新，導致治具設計錯誤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+SUS SKU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>肉厚偏下陷</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作問題，非單板上問題，為治具連線上問題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I701 issue, power</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">打不出來, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ABA SWAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後單板可正常打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>power</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonar Tx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Q304 crack, Prissue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有,在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">抓到
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Validation: Pick and place 30 times</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW can't support I407B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>外掛之切換轉板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試程式溝通問題。測聲納電壓用。已加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>解決。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1604,7 +1914,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,8 +1993,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,6 +2023,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1743,7 +2073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1752,32 +2082,44 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{B95E3B61-32D4-4881-92C3-CBA066272DD9}"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2046,19 +2388,789 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>108892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>144960</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="群組 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261BA4BF-F8F6-5A54-97B1-3C29774B225D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="44823" y="34282935"/>
+          <a:ext cx="23556485" cy="21284257"/>
+          <a:chOff x="44823" y="26778893"/>
+          <a:chExt cx="20483637" cy="19191010"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="圖片 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3CDD4B-90C6-0942-2B3F-EEAD631EF5E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="216274" y="26816833"/>
+            <a:ext cx="6365501" cy="4676775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="圖片 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEAB929-F6CE-0D2A-461B-AADBC9BCA2EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6667501" y="26804506"/>
+            <a:ext cx="6285714" cy="4676190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="圖片 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BDF0D1-3536-7EFA-BE6C-CB285744706D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13005229" y="26778893"/>
+            <a:ext cx="6109722" cy="4673229"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="圖片 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE02A91-DD81-DCE8-6322-0884A393E0F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="44823" y="31656653"/>
+            <a:ext cx="6685714" cy="4676190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="圖片 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D08298E-8EC6-24F1-C923-A1C63942F2A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6880412" y="31533389"/>
+            <a:ext cx="6038095" cy="4676190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="圖片 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974B4B93-CDFC-5D2B-E239-4E0E64894FA1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13069261" y="31579573"/>
+            <a:ext cx="6161905" cy="4676430"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="圖片 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B41218F-67B1-2FA4-8DD9-5A6BDB37EA53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="224117" y="36396742"/>
+            <a:ext cx="8628571" cy="4676190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="圖片 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114F7BEE-00FE-F68F-B5D3-63A60DB538D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9087971" y="36318300"/>
+            <a:ext cx="6047619" cy="4676190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="圖片 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E64B438-5ADB-9B18-4303-962CC6A6A28A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="302559" y="41293713"/>
+            <a:ext cx="9876190" cy="4676190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="圖片 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDD44CF-3210-B6AA-87CA-03E110F605B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10309412" y="41181653"/>
+            <a:ext cx="10219048" cy="4676190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42770</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1483286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="圖片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DCDB28-3C84-6A03-F087-E10674F647AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42770" y="2423832"/>
+          <a:ext cx="6320491" cy="4679950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>50613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1407750</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>167503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="圖片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16D5CAA-AC16-D6FE-E45D-0861B3E006CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7226113"/>
+          <a:ext cx="6287725" cy="4685715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1482912</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>59951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3053178</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>164141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="圖片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEDA350-631B-3E85-40AE-96D7A3A57773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6366062" y="7235451"/>
+          <a:ext cx="6164491" cy="4673015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>90020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>897633</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>13235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="圖片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56250D97-2B9E-4063-5283-1B71E9F2BE6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16981020"/>
+          <a:ext cx="8638283" cy="4682540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102721</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>188073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1254261</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>98588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="圖片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EBBBA8-521A-C504-098D-3074B785CC19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102721" y="11935573"/>
+          <a:ext cx="6031515" cy="4673015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>934010</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>112433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>410954</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>35648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="圖片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E9D3ED-E952-ADD0-8120-13065D07E295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8674660" y="17003433"/>
+          <a:ext cx="9881419" cy="4682540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>100394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>734246</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>17259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="圖片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34570207-1487-4B03-A04F-628FA669AF94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26541794"/>
+          <a:ext cx="10208446" cy="4679365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3390526</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>144010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>211416</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>67810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5014F6CA-8960-544E-86A7-B5BBBA297438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858376" y="8668885"/>
+          <a:ext cx="6660215" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1507565</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3060513</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="圖片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40009ACD-2EEF-B033-4428-3771CB82C8C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6390715" y="16722725"/>
+          <a:ext cx="6147173" cy="4683125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1563507</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>169209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3139988</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>93009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="圖片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58630C9F-C49F-4A17-65F6-0C740D90027F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448122" y="7203055"/>
+          <a:ext cx="6169729" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9040F8E4-89AA-4C67-A177-09E10BE3A580}" name="表格1" displayName="表格1" ref="A31:I49" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9040F8E4-89AA-4C67-A177-09E10BE3A580}" name="表格1" displayName="表格1" ref="A31:I49" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A31:I49" xr:uid="{1DFD9A53-9890-4F37-A52C-56448A3FEF6D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{63AC1EDA-46D4-4897-88A5-774EDDAD72AE}" name="Process Type" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{11FDC75D-A3DC-4B34-AEAF-D26CF9E0FACC}" name="ItemNameType" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DF421E8D-FDA7-48D1-B656-73385C53D66C}" name="FPY  %" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F34D2231-52F7-418D-9F36-B5DD1D96A49F}" name="FYR  %" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{68DFA4CD-9EA5-4D2A-86A5-D320A7853E11}" name="Retest Rate %" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F212EB61-426F-4B8B-8F45-3771C4799022}" name="Retest Rate(WO. ProductFail)  %" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{95D6C4F6-5865-4F0F-A1D5-7E29EF76A291}" name="Tested ESN QTY / Output" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B906DE74-C2A5-4D97-945B-45988740C686}" name="Avg Pass (sec)" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{A449FE1E-861A-4D1E-B54E-CB5B738BD262}" name="TestDate (UTC)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{63AC1EDA-46D4-4897-88A5-774EDDAD72AE}" name="Process Type" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{11FDC75D-A3DC-4B34-AEAF-D26CF9E0FACC}" name="ItemNameType" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DF421E8D-FDA7-48D1-B656-73385C53D66C}" name="FPY  %" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F34D2231-52F7-418D-9F36-B5DD1D96A49F}" name="FYR  %" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{68DFA4CD-9EA5-4D2A-86A5-D320A7853E11}" name="Retest Rate %" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{F212EB61-426F-4B8B-8F45-3771C4799022}" name="Retest Rate(WO. ProductFail)  %" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{95D6C4F6-5865-4F0F-A1D5-7E29EF76A291}" name="Tested ESN QTY / Output" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B906DE74-C2A5-4D97-945B-45988740C686}" name="Avg Pass (sec)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{A449FE1E-861A-4D1E-B54E-CB5B738BD262}" name="TestDate (UTC)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2357,1008 +3469,1008 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="50" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="33.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="17" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="6" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="7" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="6" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="7" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="6" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="7" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="7" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="6" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="7" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="6" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="7" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="6" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="6" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="8" t="s">
         <v>503</v>
       </c>
     </row>
@@ -3377,24 +4489,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="70.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="14.42578125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3419,11 +4532,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3436,7 +4549,7 @@
       <c r="D2" s="3">
         <v>199</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -3445,8 +4558,11 @@
       <c r="G2" s="3">
         <v>39.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3468,8 +4584,8 @@
       <c r="G3" s="3">
         <v>30.84</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>505</v>
+      <c r="H3" s="11" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3483,19 +4599,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="3">
-        <v>116</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3">
-        <v>30.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.26</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3517,34 +4636,37 @@
       <c r="G5" s="3">
         <v>25.11</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>18195</v>
+        <v>18191</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>138</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>116</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3">
-        <v>15.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30.51</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -3557,7 +4679,7 @@
       <c r="D7" s="3">
         <v>64</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -3566,8 +4688,11 @@
       <c r="G7" s="3">
         <v>14.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3580,7 +4705,7 @@
       <c r="D8" s="3">
         <v>37</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -3589,8 +4714,11 @@
       <c r="G8" s="3">
         <v>13.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -3612,8 +4740,11 @@
       <c r="G9" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -3641,45 +4772,51 @@
         <v>7</v>
       </c>
       <c r="B11" s="3">
+        <v>18192</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3">
+        <v>85</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
         <v>18191</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
-        <v>59</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
-        <v>18200</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="3">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>117</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3">
-        <v>8.0399999999999991</v>
+        <v>6.99</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3687,25 +4824,28 @@
         <v>7</v>
       </c>
       <c r="B13" s="3">
-        <v>18205</v>
+        <v>18195</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>63</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>38</v>
+        <v>138</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>15.29</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -3727,31 +4867,37 @@
       <c r="G14" s="3">
         <v>7.46</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>18191</v>
+        <v>18192</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3">
-        <v>117</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G15" s="3">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.57</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -3773,31 +4919,37 @@
       <c r="G16" s="3">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>18192</v>
+        <v>18195</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
-        <v>70</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G17" s="3">
-        <v>6.57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.25</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -3819,8 +4971,11 @@
       <c r="G18" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -3833,7 +4988,7 @@
       <c r="D19" s="3">
         <v>36</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -3842,100 +4997,115 @@
       <c r="G19" s="3">
         <v>6.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="3">
+        <v>18200</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3">
+        <v>13</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
+        <v>18205</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3">
+        <v>63</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="3">
+        <v>7.56</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>18205</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3">
+        <v>54</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
         <v>18192</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D23" s="3">
         <v>73</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G23" s="3">
         <v>5.51</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3">
-        <v>18213</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="3">
-        <v>43</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5.34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3">
-        <v>18213</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="3">
-        <v>57</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3">
-        <v>18195</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3">
-        <v>16</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="14" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +5128,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -3980,11 +5150,11 @@
       <c r="G25" s="3">
         <v>3.52</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -4007,7 +5177,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -4030,7 +5200,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -4052,8 +5222,9 @@
       <c r="G28" s="3">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -4076,7 +5247,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4098,8 +5269,11 @@
       <c r="G30" s="3">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -4122,7 +5296,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -4135,7 +5309,7 @@
       <c r="D32" s="3">
         <v>75</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -4144,31 +5318,37 @@
       <c r="G32" s="3">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="3">
-        <v>18192</v>
+        <v>18213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3">
-        <v>85</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G33" s="3">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.34</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>77</v>
       </c>
@@ -4190,8 +5370,11 @@
       <c r="G34" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>77</v>
       </c>
@@ -4204,7 +5387,7 @@
       <c r="D35" s="3">
         <v>75</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -4213,38 +5396,60 @@
       <c r="G35" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="3">
-        <v>18205</v>
+        <v>18213</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D36" s="3">
-        <v>54</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G36" s="3">
-        <v>2.73</v>
-      </c>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="9"/>
+      <c r="H38" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <colorFilter dxfId="0" cellColor="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
+    <sortCondition descending="1" ref="G2:G36"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Products with Python/Descent MK3s/MK3s_FFP_2.6_400.68.xlsx
+++ b/Products with Python/Descent MK3s/MK3s_FFP_2.6_400.68.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\Products with Python\Descent MK3s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A86AD-1DBB-45FF-A9E9-D022AD9D0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA00EC4D-F72F-4C3A-8AC2-8C589C7F077D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2104,15 +2104,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2416,8 +2416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="44823" y="34282935"/>
-          <a:ext cx="23556485" cy="21284257"/>
+          <a:off x="44823" y="34376480"/>
+          <a:ext cx="23677313" cy="21284257"/>
           <a:chOff x="44823" y="26778893"/>
           <a:chExt cx="20483637" cy="19191010"/>
         </a:xfrm>
@@ -2718,15 +2718,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>42770</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>10832</xdr:rowOff>
+      <xdr:colOff>76388</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>167714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1483286</xdr:colOff>
+      <xdr:colOff>1516904</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>118782</xdr:rowOff>
+      <xdr:rowOff>85164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2749,8 +2749,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42770" y="2423832"/>
-          <a:ext cx="6320491" cy="4679950"/>
+          <a:off x="76388" y="9860802"/>
+          <a:ext cx="6315075" cy="4679950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3482,19 +3482,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3898,28 +3898,28 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="19" t="s">
         <v>371</v>
       </c>
     </row>
@@ -4491,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J103" sqref="I103:J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5309,7 +5309,7 @@
       <c r="D32" s="3">
         <v>75</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -5318,7 +5318,7 @@
       <c r="G32" s="3">
         <v>3.05</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="17" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       <c r="D35" s="3">
         <v>75</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -5396,7 +5396,7 @@
       <c r="G35" s="3">
         <v>2.9</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="17" t="s">
         <v>513</v>
       </c>
     </row>
